--- a/code/exps/compare_loss.xlsx
+++ b/code/exps/compare_loss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EEGuizhi\Project\code\exps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1532D4B4-3B00-4062-96E0-A3A9CF55F3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AA4705-EE71-4203-9C64-0F9C6ABA1776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,30 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Method2 Train</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method2 Val</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method1 Train</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method1 Val</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method1 Val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method2 Val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ver Leaky ReLU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +138,30 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Without morph loss Train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Without morph loss Val</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Without morph loss Val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With morph loss Train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With morph loss Val</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>With morph loss Val</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -339,7 +339,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Method1 Train</c:v>
+                  <c:v>Without morph loss Train</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -547,7 +547,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Method1 Val</c:v>
+                  <c:v>Without morph loss Val</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -754,7 +754,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Method2 Train</c:v>
+                  <c:v>With morph loss Train</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -962,7 +962,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Method2 Val</c:v>
+                  <c:v>With morph loss Val</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1531,7 +1531,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Method1 Val</c:v>
+                  <c:v>Without morph loss Val</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1738,7 +1738,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Method2 Val</c:v>
+                  <c:v>With morph loss Val</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2181,9 +2181,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.25881818906494958"/>
+          <c:x val="4.4892307842340204E-2"/>
           <c:y val="0.89499487116470655"/>
-          <c:w val="0.48273681045427841"/>
+          <c:w val="0.94436640290152007"/>
           <c:h val="7.5486415142689514E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -8783,8 +8783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW34" zoomScale="194" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="47" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD96" sqref="AD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8834,19 +8834,19 @@
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
@@ -8855,27 +8855,27 @@
         <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AB1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AH1" s="7" t="s">
         <v>15</v>
@@ -8961,22 +8961,22 @@
         <v>17</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BT1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.3">
@@ -9008,7 +9008,7 @@
         <v>0.26870200972793201</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N2" s="1">
         <v>4.5228842645883498E-2</v>
@@ -9109,7 +9109,7 @@
         <v>0.48516745844858677</v>
       </c>
       <c r="BP2" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BQ2" s="1">
         <v>0.40574900159296001</v>
@@ -9159,7 +9159,7 @@
         <v>3.9015347032614403E-2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1">
         <v>3.6137695889919899E-2</v>
@@ -9301,7 +9301,7 @@
         <v>3.3355023747063998E-2</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N4" s="1">
         <v>3.2018064055591801E-2</v>
@@ -9443,7 +9443,7 @@
         <v>2.9968720843207099E-2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N5" s="1">
         <v>3.0250012874603199E-2</v>
@@ -9585,7 +9585,7 @@
         <v>2.6941503978000499E-2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N6" s="1">
         <v>2.6576001895591599E-2</v>
@@ -9727,7 +9727,7 @@
         <v>2.4561027697515898E-2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N7" s="1">
         <v>2.4047659011557601E-2</v>
@@ -9869,7 +9869,7 @@
         <v>2.22177721630289E-2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N8" s="1">
         <v>2.1309898933395698E-2</v>
@@ -10011,7 +10011,7 @@
         <v>2.09466602723553E-2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N9" s="1">
         <v>2.1464180434122598E-2</v>
@@ -10153,7 +10153,7 @@
         <v>2.0037786648520801E-2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N10" s="1">
         <v>1.8926313612610102E-2</v>
@@ -10295,7 +10295,7 @@
         <v>1.8965783757421199E-2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N11" s="1">
         <v>2.0793495234102E-2</v>
@@ -10437,7 +10437,7 @@
         <v>1.82426534944547E-2</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N12" s="1">
         <v>1.72274959040805E-2</v>
@@ -10579,7 +10579,7 @@
         <v>1.7268056524390299E-2</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N13" s="1">
         <v>1.8240961479023099E-2</v>
@@ -10721,7 +10721,7 @@
         <v>1.66751865192123E-2</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N14" s="1">
         <v>1.6505040694028101E-2</v>
@@ -10863,7 +10863,7 @@
         <v>1.6345187986515599E-2</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N15" s="1">
         <v>1.59502237802371E-2</v>
@@ -11005,7 +11005,7 @@
         <v>1.7363901742083802E-2</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N16" s="1">
         <v>1.74896114040166E-2</v>
